--- a/docs/FTLCases.xlsx
+++ b/docs/FTLCases.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\Rubinator3000\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D92EFB26-16E3-477B-B6D5-CC2B900229AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{496F6B30-684A-426B-A9C7-395F7B981825}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13290" xr2:uid="{E4E05A20-2FF2-40FB-886F-C8326775B2AC}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="9072" xr2:uid="{E4E05A20-2FF2-40FB-886F-C8326775B2AC}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle2" sheetId="2" r:id="rId1"/>
+    <sheet name="Tabelle1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
   <si>
     <t>FTL Case</t>
   </si>
@@ -55,6 +56,51 @@
   </si>
   <si>
     <t>eagle</t>
+  </si>
+  <si>
+    <t>crocodile</t>
+  </si>
+  <si>
+    <t>Eckstein</t>
+  </si>
+  <si>
+    <t>Kantenstein</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>Rotation</t>
+  </si>
+  <si>
+    <t>Im Slot</t>
+  </si>
+  <si>
+    <t>Slot</t>
+  </si>
+  <si>
+    <t>Fläche Weiß</t>
+  </si>
+  <si>
+    <t>Weiß</t>
+  </si>
+  <si>
+    <t>CornerSolved</t>
+  </si>
+  <si>
+    <t>Vorgehen</t>
+  </si>
+  <si>
+    <t>FalsePairedSlot</t>
+  </si>
+  <si>
+    <t>RemoveFromSlot + FalsePaired</t>
+  </si>
+  <si>
+    <t>Side</t>
+  </si>
+  <si>
+    <t>gelbe Ebene</t>
   </si>
 </sst>
 </file>
@@ -97,7 +143,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -106,6 +152,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -140,8 +189,8 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="Textfeld 1">
@@ -183,6 +232,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -269,7 +319,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="Textfeld 1">
@@ -359,8 +409,8 @@
       <xdr:row>1</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="Textfeld 2">
@@ -402,6 +452,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -476,7 +527,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="Textfeld 2">
@@ -545,8 +596,8 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="Textfeld 4">
@@ -588,6 +639,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -693,7 +745,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="Textfeld 4">
@@ -1065,22 +1117,124 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{667CA328-CFC7-462F-9313-4DD1A51ADEB9}">
-  <dimension ref="B2:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E401E3CB-DFC0-4FFC-A27B-70D0B984B202}">
+  <dimension ref="B2:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="11.42578125" style="1"/>
-    <col min="3" max="3" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.28515625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="2" width="11.5546875" style="1"/>
+    <col min="3" max="3" width="14.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.5546875" style="1"/>
+    <col min="6" max="6" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.88671875" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{667CA328-CFC7-462F-9313-4DD1A51ADEB9}">
+  <dimension ref="B2:D6"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D6" sqref="B6:D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="11.44140625" style="1"/>
+    <col min="3" max="3" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.33203125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="11.44140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1091,7 +1245,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1100,7 +1254,7 @@
       </c>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1108,12 +1262,17 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
